--- a/src/main/resources/xlsx/pcs/pr-ow.xlsx
+++ b/src/main/resources/xlsx/pcs/pr-ow.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>序号</t>
   </si>
@@ -121,6 +121,23 @@
   <si>
     <t>“stage”
 推荐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">中国共产党北京师范大学第十三次党员代表大会代表候选人title人选统计表
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="华文中宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（“stage”阶段，党委组织部汇总）</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -328,6 +345,48 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -336,48 +395,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -996,7 +1013,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B8"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1010,66 +1027,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="A1" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
     </row>
     <row r="3" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9" t="s">
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
       <c r="F4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1090,12 +1107,12 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="19"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="9" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -1105,9 +1122,9 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="20"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="9" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1122,9 +1139,9 @@
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="20"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="9"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1137,9 +1154,9 @@
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="9"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1152,14 +1169,14 @@
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="9"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1169,9 +1186,9 @@
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="9" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -1186,9 +1203,9 @@
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="9"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1201,9 +1218,9 @@
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="9"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="4" t="s">
         <v>5</v>
       </c>
@@ -1216,22 +1233,30 @@
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="B3:B4"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="A9:B12"/>
@@ -1240,14 +1265,6 @@
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="B3:B4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1279,66 +1296,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
     </row>
     <row r="3" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9" t="s">
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
       <c r="F4" s="5" t="s">
         <v>15</v>
       </c>

--- a/src/main/resources/xlsx/pcs/pr-ow.xlsx
+++ b/src/main/resources/xlsx/pcs/pr-ow.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="原表" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>序号</t>
   </si>
@@ -99,23 +99,6 @@
   </si>
   <si>
     <t>全校共有党员 mc 名，其中：在职教职工党员 tc 名，学生党员 sc 名，离退休党员 rc 名。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">中国共产党北京师范大学第十三次党员代表大会代表候选人初步人选统计表
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="华文中宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（“stage”阶段，党委组织部汇总）</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -345,9 +328,24 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -369,15 +367,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -386,15 +378,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1012,7 +995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -1027,66 +1010,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
+      <c r="A1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
     </row>
     <row r="3" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
       <c r="F4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1107,12 +1090,12 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="6" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -1122,10 +1105,10 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="6" t="s">
-        <v>20</v>
+      <c r="A6" s="21"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>4</v>
@@ -1139,9 +1122,9 @@
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="6"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1154,9 +1137,9 @@
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="6"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1169,14 +1152,14 @@
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1186,10 +1169,10 @@
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="6" t="s">
-        <v>20</v>
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>4</v>
@@ -1203,9 +1186,9 @@
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="6"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1218,9 +1201,9 @@
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="6"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="9"/>
       <c r="D12" s="4" t="s">
         <v>5</v>
       </c>
@@ -1233,22 +1216,30 @@
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="A9:B12"/>
+    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="A5:A8"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:A4"/>
@@ -1257,14 +1248,6 @@
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="A9:B12"/>
-    <mergeCell ref="A13:K13"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="A5:A8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1281,8 +1264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1296,66 +1279,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
+      <c r="A1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
     </row>
     <row r="3" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
       <c r="F4" s="5" t="s">
         <v>15</v>
       </c>

--- a/src/main/resources/xlsx/pcs/pr-ow.xlsx
+++ b/src/main/resources/xlsx/pcs/pr-ow.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76F18E7-EC83-4102-BD0E-A35D455EA4CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="2940" yWindow="1695" windowWidth="22905" windowHeight="11850" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原表" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>序号</t>
   </si>
@@ -123,11 +124,28 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">title
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="华文中宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（“stage”阶段，党委组织部汇总）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -328,6 +346,48 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -336,48 +396,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -992,7 +1010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
@@ -1010,66 +1028,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
     </row>
     <row r="3" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9" t="s">
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
       <c r="F4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1090,12 +1108,12 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="20"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="9" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -1105,9 +1123,9 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="9" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1122,9 +1140,9 @@
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="9"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1137,9 +1155,9 @@
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="22"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="9"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1152,14 +1170,14 @@
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="9"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1169,9 +1187,9 @@
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="9" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -1186,9 +1204,9 @@
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="9"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1201,9 +1219,9 @@
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="9"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="4" t="s">
         <v>5</v>
       </c>
@@ -1216,22 +1234,30 @@
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="B3:B4"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="A9:B12"/>
@@ -1240,14 +1266,6 @@
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="B3:B4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1261,11 +1279,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="E3" sqref="E3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1279,66 +1297,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="A1" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
     </row>
     <row r="3" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9" t="s">
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
       <c r="F4" s="5" t="s">
         <v>15</v>
       </c>

--- a/src/main/resources/xlsx/pcs/pr-ow.xlsx
+++ b/src/main/resources/xlsx/pcs/pr-ow.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76F18E7-EC83-4102-BD0E-A35D455EA4CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="1695" windowWidth="22905" windowHeight="11850" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="1695" windowWidth="22905" windowHeight="11850" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="原表" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>序号</t>
   </si>
@@ -141,11 +140,15 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>二级党组织名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -346,9 +349,24 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -370,15 +388,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -387,15 +399,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1010,7 +1013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
@@ -1028,66 +1031,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
     </row>
     <row r="3" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
       <c r="F4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1108,12 +1111,12 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="6" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -1123,9 +1126,9 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="6" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1140,9 +1143,9 @@
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="6"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1155,9 +1158,9 @@
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="6"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1170,14 +1173,14 @@
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1187,9 +1190,9 @@
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="6" t="s">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -1204,9 +1207,9 @@
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="6"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1219,9 +1222,9 @@
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="6"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="9"/>
       <c r="D12" s="4" t="s">
         <v>5</v>
       </c>
@@ -1234,22 +1237,30 @@
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="A9:B12"/>
+    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="A5:A8"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:A4"/>
@@ -1258,14 +1269,6 @@
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="A9:B12"/>
-    <mergeCell ref="A13:K13"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="A5:A8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1279,11 +1282,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1297,66 +1300,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
     </row>
     <row r="3" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
       <c r="F4" s="5" t="s">
         <v>15</v>
       </c>

--- a/src/main/resources/xlsx/pcs/pr-ow.xlsx
+++ b/src/main/resources/xlsx/pcs/pr-ow.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="1695" windowWidth="22905" windowHeight="11850" activeTab="1"/>
+    <workbookView xWindow="2940" yWindow="1695" windowWidth="22905" windowHeight="11850"/>
   </bookViews>
   <sheets>
     <sheet name="原表" sheetId="1" r:id="rId1"/>
@@ -107,41 +107,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">中国共产党北京师范大学第十三次党员代表大会代表候选人title人选统计表
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="华文中宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（“stage”阶段，党委组织部汇总）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">title
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="华文中宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（“stage”阶段，党委组织部汇总）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>二级党组织名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -149,7 +123,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,13 +148,6 @@
     </font>
     <font>
       <sz val="18"/>
-      <color theme="1"/>
-      <name val="华文中宋"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="华文中宋"/>
       <family val="3"/>
@@ -340,7 +307,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -349,56 +316,56 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1016,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1031,66 +998,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="A1" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
     </row>
     <row r="3" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9" t="s">
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
       <c r="F4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1111,12 +1078,12 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="20"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="9" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -1126,9 +1093,9 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="9" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1143,9 +1110,9 @@
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="9"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1158,9 +1125,9 @@
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="22"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="9"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1173,14 +1140,14 @@
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="9"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1190,9 +1157,9 @@
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="9" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -1207,9 +1174,9 @@
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="9"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1222,9 +1189,9 @@
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="9"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="4" t="s">
         <v>5</v>
       </c>
@@ -1237,22 +1204,30 @@
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="B3:B4"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="A9:B12"/>
@@ -1261,14 +1236,6 @@
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="B3:B4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1285,8 +1252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1300,66 +1267,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="A1" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
     </row>
     <row r="3" spans="1:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9" t="s">
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
       <c r="F4" s="5" t="s">
         <v>15</v>
       </c>
